--- a/Sprint.xlsx
+++ b/Sprint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\open\Documents\GitHub\heritagesociety\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Estimate</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Design Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github sync </t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +869,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
